--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ptn-Ptprb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ptn-Ptprb.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6306313333333333</v>
+        <v>0.2563003333333334</v>
       </c>
       <c r="H2">
-        <v>1.891894</v>
+        <v>0.7689010000000001</v>
       </c>
       <c r="I2">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="J2">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>146.5291443333333</v>
+        <v>111.9838483333333</v>
       </c>
       <c r="N2">
-        <v>439.587433</v>
+        <v>335.951545</v>
       </c>
       <c r="O2">
-        <v>0.9876486023666144</v>
+        <v>0.9903421230865344</v>
       </c>
       <c r="P2">
-        <v>0.9876486023666142</v>
+        <v>0.9903421230865345</v>
       </c>
       <c r="Q2">
-        <v>92.40586966312244</v>
+        <v>28.70149765578278</v>
       </c>
       <c r="R2">
-        <v>831.6528269681021</v>
+        <v>258.313478902045</v>
       </c>
       <c r="S2">
-        <v>0.04693807243794186</v>
+        <v>0.02957980151102226</v>
       </c>
       <c r="T2">
-        <v>0.04693807243794185</v>
+        <v>0.02957980151102226</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6306313333333333</v>
+        <v>0.2563003333333334</v>
       </c>
       <c r="H3">
-        <v>1.891894</v>
+        <v>0.7689010000000001</v>
       </c>
       <c r="I3">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="J3">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>0.2506956666666667</v>
       </c>
       <c r="N3">
-        <v>0.752087</v>
+        <v>0.7520870000000001</v>
       </c>
       <c r="O3">
-        <v>0.001689760940932313</v>
+        <v>0.002217056142205812</v>
       </c>
       <c r="P3">
-        <v>0.001689760940932312</v>
+        <v>0.002217056142205812</v>
       </c>
       <c r="Q3">
-        <v>0.1580965425308889</v>
+        <v>0.0642533829318889</v>
       </c>
       <c r="R3">
-        <v>1.422868882778</v>
+        <v>0.578280446387</v>
       </c>
       <c r="S3">
-        <v>8.03060129465402E-05</v>
+        <v>6.621962157971382E-05</v>
       </c>
       <c r="T3">
-        <v>8.030601294654019E-05</v>
+        <v>6.621962157971382E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6306313333333333</v>
+        <v>0.2563003333333334</v>
       </c>
       <c r="H4">
-        <v>1.891894</v>
+        <v>0.7689010000000001</v>
       </c>
       <c r="I4">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="J4">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.04295533333333334</v>
+        <v>0.08600233333333333</v>
       </c>
       <c r="N4">
-        <v>0.128866</v>
+        <v>0.258007</v>
       </c>
       <c r="O4">
-        <v>0.0002895313087637247</v>
+        <v>0.0007605715882365937</v>
       </c>
       <c r="P4">
-        <v>0.0002895313087637246</v>
+        <v>0.0007605715882365937</v>
       </c>
       <c r="Q4">
-        <v>0.02708897913377778</v>
+        <v>0.02204242670077778</v>
       </c>
       <c r="R4">
-        <v>0.243800812204</v>
+        <v>0.198381840307</v>
       </c>
       <c r="S4">
-        <v>1.375999673491079E-05</v>
+        <v>2.271695416210787E-05</v>
       </c>
       <c r="T4">
-        <v>1.375999673491079E-05</v>
+        <v>2.271695416210787E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6306313333333333</v>
+        <v>0.2563003333333334</v>
       </c>
       <c r="H5">
-        <v>1.891894</v>
+        <v>0.7689010000000001</v>
       </c>
       <c r="I5">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="J5">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9747983333333332</v>
+        <v>0.2330673333333333</v>
       </c>
       <c r="N5">
-        <v>2.924395</v>
+        <v>0.699202</v>
       </c>
       <c r="O5">
-        <v>0.006570421303463229</v>
+        <v>0.00206115793617306</v>
       </c>
       <c r="P5">
-        <v>0.006570421303463228</v>
+        <v>0.00206115793617306</v>
       </c>
       <c r="Q5">
-        <v>0.614738372681111</v>
+        <v>0.05973523522244444</v>
       </c>
       <c r="R5">
-        <v>5.53264535413</v>
+        <v>0.537617117002</v>
       </c>
       <c r="S5">
-        <v>0.0003122597554947731</v>
+        <v>6.156321256421007E-05</v>
       </c>
       <c r="T5">
-        <v>0.000312259755494773</v>
+        <v>6.156321256421006E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.6306313333333333</v>
+        <v>0.2563003333333334</v>
       </c>
       <c r="H6">
-        <v>1.891894</v>
+        <v>0.7689010000000001</v>
       </c>
       <c r="I6">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="J6">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5176430000000001</v>
+        <v>0.4146136666666667</v>
       </c>
       <c r="N6">
-        <v>1.552929</v>
+        <v>1.243841</v>
       </c>
       <c r="O6">
-        <v>0.003489062792258177</v>
+        <v>0.003666683946109186</v>
       </c>
       <c r="P6">
-        <v>0.003489062792258176</v>
+        <v>0.003666683946109187</v>
       </c>
       <c r="Q6">
-        <v>0.3264418952806667</v>
+        <v>0.1062656209712222</v>
       </c>
       <c r="R6">
-        <v>2.937977057526</v>
+        <v>0.956390588741</v>
       </c>
       <c r="S6">
-        <v>0.0001658179657128201</v>
+        <v>0.0001095174897655894</v>
       </c>
       <c r="T6">
-        <v>0.0001658179657128201</v>
+        <v>0.0001095174897655894</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.6306313333333333</v>
+        <v>0.2563003333333334</v>
       </c>
       <c r="H7">
-        <v>1.891894</v>
+        <v>0.7689010000000001</v>
       </c>
       <c r="I7">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="J7">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.04638100000000001</v>
+        <v>0.1076943333333334</v>
       </c>
       <c r="N7">
-        <v>0.139143</v>
+        <v>0.3230830000000001</v>
       </c>
       <c r="O7">
-        <v>0.0003126212879682069</v>
+        <v>0.0009524073007408459</v>
       </c>
       <c r="P7">
-        <v>0.0003126212879682068</v>
+        <v>0.000952407300740846</v>
       </c>
       <c r="Q7">
-        <v>0.02924931187133334</v>
+        <v>0.02760209353144445</v>
       </c>
       <c r="R7">
-        <v>0.263243806842</v>
+        <v>0.2484188417830001</v>
       </c>
       <c r="S7">
-        <v>1.485734969414502E-05</v>
+        <v>2.844675416386493E-05</v>
       </c>
       <c r="T7">
-        <v>1.485734969414502E-05</v>
+        <v>2.844675416386493E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.495645</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H8">
         <v>19.486935</v>
       </c>
       <c r="I8">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270297</v>
       </c>
       <c r="J8">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270296</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>146.5291443333333</v>
+        <v>111.9838483333333</v>
       </c>
       <c r="N8">
-        <v>439.587433</v>
+        <v>335.951545</v>
       </c>
       <c r="O8">
-        <v>0.9876486023666144</v>
+        <v>0.9903421230865344</v>
       </c>
       <c r="P8">
-        <v>0.9876486023666142</v>
+        <v>0.9903421230865345</v>
       </c>
       <c r="Q8">
-        <v>951.801303743095</v>
+        <v>727.4073245071751</v>
       </c>
       <c r="R8">
-        <v>8566.211733687855</v>
+        <v>6546.665920564576</v>
       </c>
       <c r="S8">
-        <v>0.4834727350599265</v>
+        <v>0.7496669523881392</v>
       </c>
       <c r="T8">
-        <v>0.4834727350599264</v>
+        <v>0.7496669523881392</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.495645</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H9">
         <v>19.486935</v>
       </c>
       <c r="I9">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270297</v>
       </c>
       <c r="J9">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270296</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,13 +998,13 @@
         <v>0.2506956666666667</v>
       </c>
       <c r="N9">
-        <v>0.752087</v>
+        <v>0.7520870000000001</v>
       </c>
       <c r="O9">
-        <v>0.001689760940932313</v>
+        <v>0.002217056142205812</v>
       </c>
       <c r="P9">
-        <v>0.001689760940932312</v>
+        <v>0.002217056142205812</v>
       </c>
       <c r="Q9">
         <v>1.628430053705</v>
@@ -1013,10 +1013,10 @@
         <v>14.655870483345</v>
       </c>
       <c r="S9">
-        <v>0.0008271700499068063</v>
+        <v>0.001678262170875679</v>
       </c>
       <c r="T9">
-        <v>0.0008271700499068061</v>
+        <v>0.001678262170875679</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.495645</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H10">
         <v>19.486935</v>
       </c>
       <c r="I10">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270297</v>
       </c>
       <c r="J10">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270296</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.04295533333333334</v>
+        <v>0.08600233333333333</v>
       </c>
       <c r="N10">
-        <v>0.128866</v>
+        <v>0.258007</v>
       </c>
       <c r="O10">
-        <v>0.0002895313087637247</v>
+        <v>0.0007605715882365937</v>
       </c>
       <c r="P10">
-        <v>0.0002895313087637246</v>
+        <v>0.0007605715882365937</v>
       </c>
       <c r="Q10">
-        <v>0.27902259619</v>
+        <v>0.558640626505</v>
       </c>
       <c r="R10">
-        <v>2.51120336571</v>
+        <v>5.027765638545</v>
       </c>
       <c r="S10">
-        <v>0.000141731070542757</v>
+        <v>0.0005757357698259927</v>
       </c>
       <c r="T10">
-        <v>0.000141731070542757</v>
+        <v>0.0005757357698259926</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.495645</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H11">
         <v>19.486935</v>
       </c>
       <c r="I11">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270297</v>
       </c>
       <c r="J11">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270296</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9747983333333332</v>
+        <v>0.2330673333333333</v>
       </c>
       <c r="N11">
-        <v>2.924395</v>
+        <v>0.699202</v>
       </c>
       <c r="O11">
-        <v>0.006570421303463229</v>
+        <v>0.00206115793617306</v>
       </c>
       <c r="P11">
-        <v>0.006570421303463228</v>
+        <v>0.00206115793617306</v>
       </c>
       <c r="Q11">
-        <v>6.331943919924999</v>
+        <v>1.51392265843</v>
       </c>
       <c r="R11">
-        <v>56.98749527932499</v>
+        <v>13.62530392587</v>
       </c>
       <c r="S11">
-        <v>0.003216345925534167</v>
+        <v>0.001560250697592987</v>
       </c>
       <c r="T11">
-        <v>0.003216345925534166</v>
+        <v>0.001560250697592986</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.495645</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H12">
         <v>19.486935</v>
       </c>
       <c r="I12">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270297</v>
       </c>
       <c r="J12">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270296</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5176430000000001</v>
+        <v>0.4146136666666667</v>
       </c>
       <c r="N12">
-        <v>1.552929</v>
+        <v>1.243841</v>
       </c>
       <c r="O12">
-        <v>0.003489062792258177</v>
+        <v>0.003666683946109186</v>
       </c>
       <c r="P12">
-        <v>0.003489062792258176</v>
+        <v>0.003666683946109187</v>
       </c>
       <c r="Q12">
-        <v>3.362425164735</v>
+        <v>2.693183190815</v>
       </c>
       <c r="R12">
-        <v>30.261826482615</v>
+        <v>24.238648717335</v>
       </c>
       <c r="S12">
-        <v>0.001707962454385898</v>
+        <v>0.002775598164685968</v>
       </c>
       <c r="T12">
-        <v>0.001707962454385898</v>
+        <v>0.002775598164685968</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.495645</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H13">
         <v>19.486935</v>
       </c>
       <c r="I13">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270297</v>
       </c>
       <c r="J13">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270296</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.04638100000000001</v>
+        <v>0.1076943333333334</v>
       </c>
       <c r="N13">
-        <v>0.139143</v>
+        <v>0.3230830000000001</v>
       </c>
       <c r="O13">
-        <v>0.0003126212879682069</v>
+        <v>0.0009524073007408459</v>
       </c>
       <c r="P13">
-        <v>0.0003126212879682068</v>
+        <v>0.000952407300740846</v>
       </c>
       <c r="Q13">
-        <v>0.301274510745</v>
+        <v>0.6995441578450001</v>
       </c>
       <c r="R13">
-        <v>2.711470596705</v>
+        <v>6.295897420605002</v>
       </c>
       <c r="S13">
-        <v>0.0001530340535791508</v>
+        <v>0.0007209511359098444</v>
       </c>
       <c r="T13">
-        <v>0.0001530340535791507</v>
+        <v>0.0007209511359098443</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.118461333333333</v>
+        <v>1.804372666666667</v>
       </c>
       <c r="H14">
-        <v>18.355384</v>
+        <v>5.413118000000001</v>
       </c>
       <c r="I14">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="J14">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>146.5291443333333</v>
+        <v>111.9838483333333</v>
       </c>
       <c r="N14">
-        <v>439.587433</v>
+        <v>335.951545</v>
       </c>
       <c r="O14">
-        <v>0.9876486023666144</v>
+        <v>0.9903421230865344</v>
       </c>
       <c r="P14">
-        <v>0.9876486023666142</v>
+        <v>0.9903421230865345</v>
       </c>
       <c r="Q14">
-        <v>896.5329038099192</v>
+        <v>202.0605950408122</v>
       </c>
       <c r="R14">
-        <v>8068.796134289273</v>
+        <v>1818.54535536731</v>
       </c>
       <c r="S14">
-        <v>0.4553988457166411</v>
+        <v>0.2082439169616658</v>
       </c>
       <c r="T14">
-        <v>0.455398845716641</v>
+        <v>0.2082439169616658</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.118461333333333</v>
+        <v>1.804372666666667</v>
       </c>
       <c r="H15">
-        <v>18.355384</v>
+        <v>5.413118000000001</v>
       </c>
       <c r="I15">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="J15">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>0.2506956666666667</v>
       </c>
       <c r="N15">
-        <v>0.752087</v>
+        <v>0.7520870000000001</v>
       </c>
       <c r="O15">
-        <v>0.001689760940932313</v>
+        <v>0.002217056142205812</v>
       </c>
       <c r="P15">
-        <v>0.001689760940932312</v>
+        <v>0.002217056142205812</v>
       </c>
       <c r="Q15">
-        <v>1.533871742934222</v>
+        <v>0.4523484085851112</v>
       </c>
       <c r="R15">
-        <v>13.804845686408</v>
+        <v>4.071135677266001</v>
       </c>
       <c r="S15">
-        <v>0.0007791386331066735</v>
+        <v>0.0004661908692098688</v>
       </c>
       <c r="T15">
-        <v>0.0007791386331066734</v>
+        <v>0.0004661908692098687</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.118461333333333</v>
+        <v>1.804372666666667</v>
       </c>
       <c r="H16">
-        <v>18.355384</v>
+        <v>5.413118000000001</v>
       </c>
       <c r="I16">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="J16">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.04295533333333334</v>
+        <v>0.08600233333333333</v>
       </c>
       <c r="N16">
-        <v>0.128866</v>
+        <v>0.258007</v>
       </c>
       <c r="O16">
-        <v>0.0002895313087637247</v>
+        <v>0.0007605715882365937</v>
       </c>
       <c r="P16">
-        <v>0.0002895313087637246</v>
+        <v>0.0007605715882365937</v>
       </c>
       <c r="Q16">
-        <v>0.2628205460604445</v>
+        <v>0.1551802595362222</v>
       </c>
       <c r="R16">
-        <v>2.365384914544</v>
+        <v>1.396622335826</v>
       </c>
       <c r="S16">
-        <v>0.0001335011495929654</v>
+        <v>0.0001599289810782936</v>
       </c>
       <c r="T16">
-        <v>0.0001335011495929654</v>
+        <v>0.0001599289810782936</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.118461333333333</v>
+        <v>1.804372666666667</v>
       </c>
       <c r="H17">
-        <v>18.355384</v>
+        <v>5.413118000000001</v>
       </c>
       <c r="I17">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="J17">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9747983333333332</v>
+        <v>0.2330673333333333</v>
       </c>
       <c r="N17">
-        <v>2.924395</v>
+        <v>0.699202</v>
       </c>
       <c r="O17">
-        <v>0.006570421303463229</v>
+        <v>0.00206115793617306</v>
       </c>
       <c r="P17">
-        <v>0.006570421303463228</v>
+        <v>0.00206115793617306</v>
       </c>
       <c r="Q17">
-        <v>5.964265910297777</v>
+        <v>0.4205403257595556</v>
       </c>
       <c r="R17">
-        <v>53.67839319268</v>
+        <v>3.784862931836</v>
       </c>
       <c r="S17">
-        <v>0.003029581847530924</v>
+        <v>0.0004334094169069252</v>
       </c>
       <c r="T17">
-        <v>0.003029581847530924</v>
+        <v>0.0004334094169069252</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.118461333333333</v>
+        <v>1.804372666666667</v>
       </c>
       <c r="H18">
-        <v>18.355384</v>
+        <v>5.413118000000001</v>
       </c>
       <c r="I18">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="J18">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.5176430000000001</v>
+        <v>0.4146136666666667</v>
       </c>
       <c r="N18">
-        <v>1.552929</v>
+        <v>1.243841</v>
       </c>
       <c r="O18">
-        <v>0.003489062792258177</v>
+        <v>0.003666683946109186</v>
       </c>
       <c r="P18">
-        <v>0.003489062792258176</v>
+        <v>0.003666683946109187</v>
       </c>
       <c r="Q18">
-        <v>3.167178679970667</v>
+        <v>0.7481175673597779</v>
       </c>
       <c r="R18">
-        <v>28.50460811973601</v>
+        <v>6.733058106238</v>
       </c>
       <c r="S18">
-        <v>0.001608785922867585</v>
+        <v>0.0007710109561112908</v>
       </c>
       <c r="T18">
-        <v>0.001608785922867585</v>
+        <v>0.0007710109561112908</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.118461333333333</v>
+        <v>1.804372666666667</v>
       </c>
       <c r="H19">
-        <v>18.355384</v>
+        <v>5.413118000000001</v>
       </c>
       <c r="I19">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="J19">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.04638100000000001</v>
+        <v>0.1076943333333334</v>
       </c>
       <c r="N19">
-        <v>0.139143</v>
+        <v>0.3230830000000001</v>
       </c>
       <c r="O19">
-        <v>0.0003126212879682069</v>
+        <v>0.0009524073007408459</v>
       </c>
       <c r="P19">
-        <v>0.0003126212879682068</v>
+        <v>0.000952407300740846</v>
       </c>
       <c r="Q19">
-        <v>0.2837803551013334</v>
+        <v>0.1943207114215556</v>
       </c>
       <c r="R19">
-        <v>2.554023195912</v>
+        <v>1.748886402794001</v>
       </c>
       <c r="S19">
-        <v>0.0001441478004889885</v>
+        <v>0.0002002671826489915</v>
       </c>
       <c r="T19">
-        <v>0.0001441478004889885</v>
+        <v>0.0002002671826489915</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1665,10 +1665,10 @@
         <v>0.07412100000000001</v>
       </c>
       <c r="I20">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091359</v>
       </c>
       <c r="J20">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091358</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>146.5291443333333</v>
+        <v>111.9838483333333</v>
       </c>
       <c r="N20">
-        <v>439.587433</v>
+        <v>335.951545</v>
       </c>
       <c r="O20">
-        <v>0.9876486023666144</v>
+        <v>0.9903421230865344</v>
       </c>
       <c r="P20">
-        <v>0.9876486023666142</v>
+        <v>0.9903421230865345</v>
       </c>
       <c r="Q20">
-        <v>3.620295569043667</v>
+        <v>2.766784940771667</v>
       </c>
       <c r="R20">
-        <v>32.582660121393</v>
+        <v>24.901064466945</v>
       </c>
       <c r="S20">
-        <v>0.00183894915210508</v>
+        <v>0.002851452225707186</v>
       </c>
       <c r="T20">
-        <v>0.00183894915210508</v>
+        <v>0.002851452225707186</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1727,10 +1727,10 @@
         <v>0.07412100000000001</v>
       </c>
       <c r="I21">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091359</v>
       </c>
       <c r="J21">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091358</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>0.2506956666666667</v>
       </c>
       <c r="N21">
-        <v>0.752087</v>
+        <v>0.7520870000000001</v>
       </c>
       <c r="O21">
-        <v>0.001689760940932313</v>
+        <v>0.002217056142205812</v>
       </c>
       <c r="P21">
-        <v>0.001689760940932312</v>
+        <v>0.002217056142205812</v>
       </c>
       <c r="Q21">
-        <v>0.006193937836333333</v>
+        <v>0.006193937836333335</v>
       </c>
       <c r="R21">
-        <v>0.055745440527</v>
+        <v>0.05574544052700001</v>
       </c>
       <c r="S21">
-        <v>3.146244972292585E-06</v>
+        <v>6.383480540550693E-06</v>
       </c>
       <c r="T21">
-        <v>3.146244972292584E-06</v>
+        <v>6.383480540550692E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1789,40 +1789,40 @@
         <v>0.07412100000000001</v>
       </c>
       <c r="I22">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091359</v>
       </c>
       <c r="J22">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091358</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.04295533333333334</v>
+        <v>0.08600233333333333</v>
       </c>
       <c r="N22">
-        <v>0.128866</v>
+        <v>0.258007</v>
       </c>
       <c r="O22">
-        <v>0.0002895313087637247</v>
+        <v>0.0007605715882365937</v>
       </c>
       <c r="P22">
-        <v>0.0002895313087637246</v>
+        <v>0.0007605715882365937</v>
       </c>
       <c r="Q22">
-        <v>0.001061297420666667</v>
+        <v>0.002124859649666667</v>
       </c>
       <c r="R22">
-        <v>0.009551676786000001</v>
+        <v>0.019123736847</v>
       </c>
       <c r="S22">
-        <v>5.390918930914326E-07</v>
+        <v>2.189883170199542E-06</v>
       </c>
       <c r="T22">
-        <v>5.390918930914325E-07</v>
+        <v>2.189883170199541E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1851,10 +1851,10 @@
         <v>0.07412100000000001</v>
       </c>
       <c r="I23">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091359</v>
       </c>
       <c r="J23">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091358</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.9747983333333332</v>
+        <v>0.2330673333333333</v>
       </c>
       <c r="N23">
-        <v>2.924395</v>
+        <v>0.699202</v>
       </c>
       <c r="O23">
-        <v>0.006570421303463229</v>
+        <v>0.00206115793617306</v>
       </c>
       <c r="P23">
-        <v>0.006570421303463228</v>
+        <v>0.00206115793617306</v>
       </c>
       <c r="Q23">
-        <v>0.02408434242166667</v>
+        <v>0.005758394604666667</v>
       </c>
       <c r="R23">
-        <v>0.216759081795</v>
+        <v>0.051825551442</v>
       </c>
       <c r="S23">
-        <v>1.223377490336566E-05</v>
+        <v>5.934609108938361E-06</v>
       </c>
       <c r="T23">
-        <v>1.223377490336566E-05</v>
+        <v>5.93460910893836E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1913,10 +1913,10 @@
         <v>0.07412100000000001</v>
       </c>
       <c r="I24">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091359</v>
       </c>
       <c r="J24">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091358</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.5176430000000001</v>
+        <v>0.4146136666666667</v>
       </c>
       <c r="N24">
-        <v>1.552929</v>
+        <v>1.243841</v>
       </c>
       <c r="O24">
-        <v>0.003489062792258177</v>
+        <v>0.003666683946109186</v>
       </c>
       <c r="P24">
-        <v>0.003489062792258176</v>
+        <v>0.003666683946109187</v>
       </c>
       <c r="Q24">
-        <v>0.012789405601</v>
+        <v>0.01024385986233333</v>
       </c>
       <c r="R24">
-        <v>0.115104650409</v>
+        <v>0.09219473876100001</v>
       </c>
       <c r="S24">
-        <v>6.496449291873617E-06</v>
+        <v>1.055733554633854E-05</v>
       </c>
       <c r="T24">
-        <v>6.496449291873615E-06</v>
+        <v>1.055733554633854E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1975,40 +1975,40 @@
         <v>0.07412100000000001</v>
       </c>
       <c r="I25">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091359</v>
       </c>
       <c r="J25">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091358</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.04638100000000001</v>
+        <v>0.1076943333333334</v>
       </c>
       <c r="N25">
-        <v>0.139143</v>
+        <v>0.3230830000000001</v>
       </c>
       <c r="O25">
-        <v>0.0003126212879682069</v>
+        <v>0.0009524073007408459</v>
       </c>
       <c r="P25">
-        <v>0.0003126212879682068</v>
+        <v>0.000952407300740846</v>
       </c>
       <c r="Q25">
-        <v>0.001145935367</v>
+        <v>0.002660803893666667</v>
       </c>
       <c r="R25">
-        <v>0.010313418303</v>
+        <v>0.02394723504300001</v>
       </c>
       <c r="S25">
-        <v>5.820842059225957E-07</v>
+        <v>2.742228018145161E-06</v>
       </c>
       <c r="T25">
-        <v>5.820842059225956E-07</v>
+        <v>2.742228018145161E-06</v>
       </c>
     </row>
   </sheetData>
